--- a/target/test-classes/data/Entries.xlsx
+++ b/target/test-classes/data/Entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JAVA PROGRAM\DemoBlaze\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D338DE-02EE-4369-96C3-8ED6FC1325C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4506A04F-7912-42D3-A389-F9A6F1404D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8F2F5E39-B96F-481F-968D-FD05F7C60F23}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F2F5E39-B96F-481F-968D-FD05F7C60F23}"/>
   </bookViews>
   <sheets>
     <sheet name="SignupData" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>Please fill out Username and Password.</t>
   </si>
   <si>
-    <t>krish345</t>
-  </si>
-  <si>
     <t>ValidInput</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>2000</t>
+  </si>
+  <si>
+    <t>krish345xyz</t>
   </si>
 </sst>
 </file>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C3A918-32BB-41EE-B2FC-839BDC2380EF}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,7 +520,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -529,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -543,7 +543,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -551,7 +551,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -590,30 +590,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -633,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B0FE49-789C-465C-A1C7-E66569921D2D}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -645,22 +645,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -668,30 +668,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
